--- a/result/gr50_010_simulated/details.xlsx
+++ b/result/gr50_010_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3996803760528564</v>
+        <v>0.4758577346801758</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1726.130028709824</v>
+        <v>1736.777416304632</v>
       </c>
       <c r="F2" t="n">
         <v>0.1763832949239896</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1484032567430441</v>
+        <v>0.1393610345579782</v>
       </c>
       <c r="H2" t="n">
-        <v>0.131220753043323</v>
+        <v>0.1158110994474369</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08823472465304624</v>
+        <v>0.09834253961323451</v>
       </c>
       <c r="J2" t="n">
-        <v>0.07885515915089532</v>
+        <v>0.08196577634368189</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06209715970711402</v>
+        <v>0.06779934550973617</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05350033167801503</v>
+        <v>0.05811601412699177</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04863981401187908</v>
+        <v>0.05526666972479417</v>
       </c>
       <c r="N2" t="n">
-        <v>0.04587665811818339</v>
+        <v>0.05015347686396227</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04289022641880552</v>
+        <v>0.04528585763464777</v>
       </c>
       <c r="P2" t="n">
-        <v>0.04058418398072587</v>
+        <v>0.0429545655320468</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03898844031785161</v>
+        <v>0.03989275682576304</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03780441333818638</v>
+        <v>0.03849160907873388</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03618631103350831</v>
+        <v>0.03763699137270304</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03559532095806426</v>
+        <v>0.03585776277715585</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03498555185239189</v>
+        <v>0.03552068291220589</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03445310865665149</v>
+        <v>0.035082147586712</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03392679188999457</v>
+        <v>0.03434355642023491</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03382609844550739</v>
+        <v>0.03414453758935892</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03364775884424607</v>
+        <v>0.03385531025934956</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4549112319946289</v>
+        <v>0.3918361663818359</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1882.480549940556</v>
+        <v>1737.972495023905</v>
       </c>
       <c r="F3" t="n">
         <v>0.1763832949239896</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1418248326881415</v>
+        <v>0.1439895923815842</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1240862634343323</v>
+        <v>0.1397108826941851</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1006247141712301</v>
+        <v>0.1077081401097672</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07932933182968063</v>
+        <v>0.07987496355142751</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06844134599235981</v>
+        <v>0.06424011989373378</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06061208512981112</v>
+        <v>0.05700209398889326</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05324389708073046</v>
+        <v>0.05122717666982481</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0498298356532338</v>
+        <v>0.04627806204020907</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04658602805144898</v>
+        <v>0.04416243213229053</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04404835871738793</v>
+        <v>0.0409257991822928</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04250410928586872</v>
+        <v>0.03966439653062103</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04086058860708911</v>
+        <v>0.03764268546429202</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0393216744961182</v>
+        <v>0.03695453607751747</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03829393172356397</v>
+        <v>0.0355225952297849</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03815941795308229</v>
+        <v>0.0348296126002086</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03759087416050941</v>
+        <v>0.03447756685162036</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03713048664257759</v>
+        <v>0.034174653638549</v>
       </c>
       <c r="X3" t="n">
-        <v>0.036857697463113</v>
+        <v>0.03402216285593923</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03669552728928958</v>
+        <v>0.03387860614081686</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6072623729705811</v>
+        <v>0.3906011581420898</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1749.038363361557</v>
+        <v>1961.055063488344</v>
       </c>
       <c r="F4" t="n">
         <v>0.1763832949239896</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1406673757348836</v>
+        <v>0.1382372116903636</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1350160500253931</v>
+        <v>0.1328849675760826</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09391085764345085</v>
+        <v>0.1097573795898677</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07441376375772883</v>
+        <v>0.09142047352277943</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06337523437608697</v>
+        <v>0.07579808568973788</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05700265206360772</v>
+        <v>0.06447478869502804</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05168076484287223</v>
+        <v>0.05832333558387</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04693113761926045</v>
+        <v>0.05307123559270142</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04308516536939045</v>
+        <v>0.04876648318049965</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04125126632790493</v>
+        <v>0.04632406014169593</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04000745998881309</v>
+        <v>0.04465072280025808</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03809344113901866</v>
+        <v>0.04311683431140344</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03698176385722092</v>
+        <v>0.04170557859060321</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03597432026089047</v>
+        <v>0.04063424123876128</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0353041104305707</v>
+        <v>0.03982963897308833</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03494427419085284</v>
+        <v>0.03909886063622861</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0346158217328295</v>
+        <v>0.03855954911622538</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0342237447693165</v>
+        <v>0.03835832129541582</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.034094315075274</v>
+        <v>0.03822719422004568</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4441988468170166</v>
+        <v>0.3906214237213135</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1791.105907341054</v>
+        <v>1764.840653124647</v>
       </c>
       <c r="F5" t="n">
         <v>0.1763832949239896</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1429909907019377</v>
+        <v>0.1471089493055333</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1319455089901838</v>
+        <v>0.1368444988783983</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1141496708121188</v>
+        <v>0.1007854893198985</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08791555396549654</v>
+        <v>0.07903864948513337</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07587269003747753</v>
+        <v>0.06200886202792739</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06193231769198663</v>
+        <v>0.0536775941027101</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05401196122022541</v>
+        <v>0.04876156976287127</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0488419467171835</v>
+        <v>0.04627233603268054</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04165128650651105</v>
+        <v>0.04251211287139038</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04165128650651105</v>
+        <v>0.0393475702001328</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03944515485848042</v>
+        <v>0.03813028938420667</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03805154513381446</v>
+        <v>0.03725430146838997</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03712877371352964</v>
+        <v>0.03616415374188189</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03684945310433543</v>
+        <v>0.03574724009609337</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03620492181685216</v>
+        <v>0.03534281106333326</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03567361505332191</v>
+        <v>0.03510461990035327</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03529517812455584</v>
+        <v>0.03475354837941966</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03504724192436671</v>
+        <v>0.03450498263028193</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03491434517234023</v>
+        <v>0.03440235191276115</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4499976634979248</v>
+        <v>0.4531536102294922</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1649.018047127733</v>
+        <v>1789.807811070305</v>
       </c>
       <c r="F6" t="n">
         <v>0.1763832949239896</v>
       </c>
       <c r="G6" t="n">
-        <v>0.144732141845666</v>
+        <v>0.1416509177669774</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1310541190420982</v>
+        <v>0.136908844838888</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09250414357438223</v>
+        <v>0.09072137281266347</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07291523178840521</v>
+        <v>0.07278515194162195</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06115320876761304</v>
+        <v>0.06604491353509478</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05387525971534377</v>
+        <v>0.0568828950153947</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04514378210019073</v>
+        <v>0.05235470777852642</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04431698400861331</v>
+        <v>0.04742469786317166</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03980455339009126</v>
+        <v>0.04458003458389231</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03781653100136963</v>
+        <v>0.04151551324950774</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03588536367153111</v>
+        <v>0.04063677669463553</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03548080793395252</v>
+        <v>0.03870711664312331</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03431798703427437</v>
+        <v>0.03770277160247686</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03372124932865221</v>
+        <v>0.0370282817226416</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0334570970263409</v>
+        <v>0.03632759970741266</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03285293741465364</v>
+        <v>0.03586669630806247</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03255801173481834</v>
+        <v>0.03528501864275206</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03226521119214132</v>
+        <v>0.0349978976050932</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0321446013085328</v>
+        <v>0.03488904115146792</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5873515605926514</v>
+        <v>0.3905997276306152</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1903.12094390647</v>
+        <v>1799.606201773744</v>
       </c>
       <c r="F7" t="n">
         <v>0.1763832949239896</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1425016747383207</v>
+        <v>0.14803351255148</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1352621208969026</v>
+        <v>0.1414548836233981</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1258311398219028</v>
+        <v>0.1315209565581311</v>
       </c>
       <c r="J7" t="n">
-        <v>0.09556983124327507</v>
+        <v>0.1057899072818349</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08725073693802246</v>
+        <v>0.09050900587488052</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07343145899925928</v>
+        <v>0.07092943739956918</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06431617517970141</v>
+        <v>0.05998072753450132</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05920039715951044</v>
+        <v>0.05360051798347471</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05193702779247497</v>
+        <v>0.0490645215358218</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0464790714962222</v>
+        <v>0.04601582668630021</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04218762093157127</v>
+        <v>0.04249468619943188</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04165988537895187</v>
+        <v>0.04064952487242499</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04069501719781814</v>
+        <v>0.03911461217487257</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03981490250583771</v>
+        <v>0.03742011255251643</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03905229119120558</v>
+        <v>0.03633264027287295</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03850000036478699</v>
+        <v>0.03596542506226681</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03771972126146172</v>
+        <v>0.03559985917040058</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03738097054041404</v>
+        <v>0.03529331799435547</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03709787415022357</v>
+        <v>0.03508004291956615</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5760068893432617</v>
+        <v>0.3750374317169189</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1823.216971024014</v>
+        <v>1892.063820495421</v>
       </c>
       <c r="F8" t="n">
         <v>0.1763832949239896</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1458193893318516</v>
+        <v>0.1488505658856033</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1359839934860548</v>
+        <v>0.1412161107205949</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1072180395594738</v>
+        <v>0.1231876455875655</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08665780064057856</v>
+        <v>0.1004588351315294</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07091771650144252</v>
+        <v>0.07867778647224154</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06202841548055354</v>
+        <v>0.06891218197116693</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05360348923336829</v>
+        <v>0.06136601031642046</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05079013565845679</v>
+        <v>0.05197450967238423</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04730866298956438</v>
+        <v>0.04910462698947399</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04317950565464442</v>
+        <v>0.04560332177923785</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04121856673193384</v>
+        <v>0.04404630417163034</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03942120172727611</v>
+        <v>0.04196257649508228</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03740428413164791</v>
+        <v>0.04039021101141394</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03740428413164791</v>
+        <v>0.03900301454862413</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0364107215292661</v>
+        <v>0.03841251464219408</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03632284876333156</v>
+        <v>0.03784669428657016</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03591247763991033</v>
+        <v>0.03734082969009179</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03554029183282678</v>
+        <v>0.03710840470426585</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03554029183282678</v>
+        <v>0.03688233568217195</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4641563892364502</v>
+        <v>0.3749594688415527</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1709.82871721457</v>
+        <v>1995.042158747146</v>
       </c>
       <c r="F9" t="n">
         <v>0.1763832949239896</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1458688700319716</v>
+        <v>0.1470971487920564</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1251602280158794</v>
+        <v>0.1370668248027466</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09515505643663998</v>
+        <v>0.11845601410399</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06885872422477221</v>
+        <v>0.09309888386956357</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05566879654368993</v>
+        <v>0.07664180059211662</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05034765096162463</v>
+        <v>0.06757306216111846</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04619921131796905</v>
+        <v>0.05843204675792778</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0436083573523402</v>
+        <v>0.05400920691651272</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04124581314369111</v>
+        <v>0.05054557133252551</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0386007625823248</v>
+        <v>0.04675818708243432</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.03729555469375033</v>
+        <v>0.04440036811163021</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03604276200605897</v>
+        <v>0.04365427967400145</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03565715890164097</v>
+        <v>0.04221208736245347</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03500816235214044</v>
+        <v>0.04143570754934179</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03411998119879996</v>
+        <v>0.04070529467988147</v>
       </c>
       <c r="V9" t="n">
-        <v>0.03392843542654968</v>
+        <v>0.040081591383836</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03374289160806998</v>
+        <v>0.03941763700812664</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03343637684089779</v>
+        <v>0.03914131974370871</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03332999448761344</v>
+        <v>0.03888971069682546</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4863762855529785</v>
+        <v>0.3750274181365967</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1758.968290250288</v>
+        <v>1898.312054279198</v>
       </c>
       <c r="F10" t="n">
         <v>0.1763832949239896</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1447950019390626</v>
+        <v>0.1447155221672362</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1118626247952961</v>
+        <v>0.1404046849725465</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09330371596303919</v>
+        <v>0.1080707280037227</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08032005450107511</v>
+        <v>0.08540842642878879</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06624159704032617</v>
+        <v>0.07202244574391832</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05606541517870484</v>
+        <v>0.06150003956882644</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05013078013413549</v>
+        <v>0.05542082687165746</v>
       </c>
       <c r="N10" t="n">
-        <v>0.04646080621185823</v>
+        <v>0.05151144611095325</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04218611349629452</v>
+        <v>0.04800215036336795</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04036523825548404</v>
+        <v>0.04455389486524126</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03928606629105478</v>
+        <v>0.0415243019114908</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03704030122583817</v>
+        <v>0.04114694330997944</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03666477696976075</v>
+        <v>0.04032926253779493</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03618521117746905</v>
+        <v>0.03939823907699906</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0354321975754763</v>
+        <v>0.03829791466883761</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03522165746458945</v>
+        <v>0.03783809452427127</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03469579775785921</v>
+        <v>0.03743619056428547</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03443938481188882</v>
+        <v>0.03721766950425171</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03428788090156507</v>
+        <v>0.03700413361168027</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4545700550079346</v>
+        <v>0.3593757152557373</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1947.159461579027</v>
+        <v>1766.466700830066</v>
       </c>
       <c r="F11" t="n">
         <v>0.1763832949239896</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1471553228633357</v>
+        <v>0.1497792556575515</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1378188269239151</v>
+        <v>0.1346625434146599</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1170614733653419</v>
+        <v>0.1030318997850675</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09435507646891679</v>
+        <v>0.08144779797735495</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08047865491671083</v>
+        <v>0.06448134721077696</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0666102039735553</v>
+        <v>0.0545874932276224</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05652661819616161</v>
+        <v>0.05068459745888523</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05195021416229082</v>
+        <v>0.04687002183324998</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04719642592010315</v>
+        <v>0.043582714077805</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04394916810832127</v>
+        <v>0.0408557303592063</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04330676115166446</v>
+        <v>0.0379009505497753</v>
       </c>
       <c r="R11" t="n">
-        <v>0.04198075634929865</v>
+        <v>0.03762978249268869</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04113063440796777</v>
+        <v>0.03682752400838765</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04026841787292747</v>
+        <v>0.036227459899469</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03951174509197725</v>
+        <v>0.0356611144404331</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0388678211678883</v>
+        <v>0.03517475713489578</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03846158659998761</v>
+        <v>0.03479589312664136</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03816963748708405</v>
+        <v>0.03443404874912408</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03795632478711553</v>
+        <v>0.03443404874912408</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr50_010_simulated/details.xlsx
+++ b/result/gr50_010_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4758577346801758</v>
+        <v>0.821000337600708</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1736.777416304632</v>
+        <v>1625.507514015328</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1763832949239896</v>
+        <v>0.1763624076937847</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1393610345579782</v>
+        <v>0.1313833334672443</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1158110994474369</v>
+        <v>0.09292159289432228</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09834253961323451</v>
+        <v>0.07328782157931228</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08196577634368189</v>
+        <v>0.06496955705674243</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06779934550973617</v>
+        <v>0.05707105522623642</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05811601412699177</v>
+        <v>0.05040991018545042</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05526666972479417</v>
+        <v>0.04714180182084696</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05015347686396227</v>
+        <v>0.04279921585802832</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04528585763464777</v>
+        <v>0.04064702430601397</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0429545655320468</v>
+        <v>0.0379955077036014</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03989275682576304</v>
+        <v>0.03647308144372229</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03849160907873388</v>
+        <v>0.0350255879848597</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03763699137270304</v>
+        <v>0.03425499183729432</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03585776277715585</v>
+        <v>0.03306593189516139</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03552068291220589</v>
+        <v>0.03261324237549594</v>
       </c>
       <c r="V2" t="n">
-        <v>0.035082147586712</v>
+        <v>0.03220966239773476</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03434355642023491</v>
+        <v>0.03217864529904591</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03414453758935892</v>
+        <v>0.03185898357847854</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.03385531025934956</v>
+        <v>0.03168630631608825</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3918361663818359</v>
+        <v>0.8559999465942383</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1737.972495023905</v>
+        <v>1715.578580270685</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1763832949239896</v>
+        <v>0.1763624076937847</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1439895923815842</v>
+        <v>0.1263645401470911</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1397108826941851</v>
+        <v>0.1020384455203502</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1077081401097672</v>
+        <v>0.08523151628714064</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07987496355142751</v>
+        <v>0.0658145945351216</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06424011989373378</v>
+        <v>0.06045834717086372</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05700209398889326</v>
+        <v>0.05372635611883469</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05122717666982481</v>
+        <v>0.04677246734473751</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04627806204020907</v>
+        <v>0.04609082253864018</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04416243213229053</v>
+        <v>0.04380612103035653</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0409257991822928</v>
+        <v>0.04046871622431129</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03966439653062103</v>
+        <v>0.03891525647602503</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03764268546429202</v>
+        <v>0.03747532082500028</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03695453607751747</v>
+        <v>0.03697736270137079</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0355225952297849</v>
+        <v>0.03583129126668937</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0348296126002086</v>
+        <v>0.0352052088692699</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03447756685162036</v>
+        <v>0.03443804797561788</v>
       </c>
       <c r="W3" t="n">
-        <v>0.034174653638549</v>
+        <v>0.03407361239690741</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03402216285593923</v>
+        <v>0.03374706320252515</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03387860614081686</v>
+        <v>0.03344207758812251</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3906011581420898</v>
+        <v>0.7579991817474365</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1961.055063488344</v>
+        <v>1639.208327440214</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1763832949239896</v>
+        <v>0.1763624076937847</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1382372116903636</v>
+        <v>0.1348792417716657</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1328849675760826</v>
+        <v>0.1064780542695052</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1097573795898677</v>
+        <v>0.08338895958232009</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09142047352277943</v>
+        <v>0.07109310672687562</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07579808568973788</v>
+        <v>0.05707644621383016</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06447478869502804</v>
+        <v>0.05269301923888845</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05832333558387</v>
+        <v>0.04720642890213662</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05307123559270142</v>
+        <v>0.04444040841295815</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04876648318049965</v>
+        <v>0.04250504918947473</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04632406014169593</v>
+        <v>0.03985298109276702</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04465072280025808</v>
+        <v>0.03826936320209191</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04311683431140344</v>
+        <v>0.03687013207744008</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04170557859060321</v>
+        <v>0.03539878650678455</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04063424123876128</v>
+        <v>0.03402232436309874</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03982963897308833</v>
+        <v>0.03366000579924027</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03909886063622861</v>
+        <v>0.03287234247776389</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03855954911622538</v>
+        <v>0.03207192759429546</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03835832129541582</v>
+        <v>0.03207192759429546</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.03822719422004568</v>
+        <v>0.03195337870253828</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3906214237213135</v>
+        <v>0.8610007762908936</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1764.840653124647</v>
+        <v>1598.631077141847</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1763832949239896</v>
+        <v>0.1763624076937847</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1471089493055333</v>
+        <v>0.1328641632549119</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1368444988783983</v>
+        <v>0.1047403048560694</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1007854893198985</v>
+        <v>0.08199541310190264</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07903864948513337</v>
+        <v>0.06655483234600262</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06200886202792739</v>
+        <v>0.05902362731007505</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0536775941027101</v>
+        <v>0.04842779973960514</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04876156976287127</v>
+        <v>0.04457124768618515</v>
       </c>
       <c r="N5" t="n">
-        <v>0.04627233603268054</v>
+        <v>0.04250376263733432</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04251211287139038</v>
+        <v>0.03796772597101641</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0393475702001328</v>
+        <v>0.03681801582891269</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03813028938420667</v>
+        <v>0.03552024514080229</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03725430146838997</v>
+        <v>0.03510803604690538</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03616415374188189</v>
+        <v>0.03388264422017605</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03574724009609337</v>
+        <v>0.03321760881671676</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03534281106333326</v>
+        <v>0.03262180575220838</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03510461990035327</v>
+        <v>0.03230230445146789</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03475354837941966</v>
+        <v>0.03166300035594496</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03450498263028193</v>
+        <v>0.03130634213613796</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.03440235191276115</v>
+        <v>0.03116239916455841</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4531536102294922</v>
+        <v>0.7569980621337891</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1789.807811070305</v>
+        <v>1636.69141818678</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1763832949239896</v>
+        <v>0.1763624076937847</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1416509177669774</v>
+        <v>0.1257485336706867</v>
       </c>
       <c r="H6" t="n">
-        <v>0.136908844838888</v>
+        <v>0.09869983807965346</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09072137281266347</v>
+        <v>0.08087925441396365</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07278515194162195</v>
+        <v>0.06287755074402959</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06604491353509478</v>
+        <v>0.05750649716524688</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0568828950153947</v>
+        <v>0.04953384411395308</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05235470777852642</v>
+        <v>0.04420701251477521</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04742469786317166</v>
+        <v>0.04089653590020603</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04458003458389231</v>
+        <v>0.03937309346346302</v>
       </c>
       <c r="P6" t="n">
-        <v>0.04151551324950774</v>
+        <v>0.03797555221528259</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04063677669463553</v>
+        <v>0.0370296314630482</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03870711664312331</v>
+        <v>0.0351324088088059</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03770277160247686</v>
+        <v>0.03448273109355746</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0370282817226416</v>
+        <v>0.03323039841595854</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03632759970741266</v>
+        <v>0.03285551410371019</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03586669630806247</v>
+        <v>0.03227327054130915</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03528501864275206</v>
+        <v>0.03218939289322043</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0349978976050932</v>
+        <v>0.03205666656184163</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03488904115146792</v>
+        <v>0.0319043161439918</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3905997276306152</v>
+        <v>0.7559986114501953</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1799.606201773744</v>
+        <v>1652.738292180122</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1763832949239896</v>
+        <v>0.1763624076937847</v>
       </c>
       <c r="G7" t="n">
-        <v>0.14803351255148</v>
+        <v>0.1182437050952666</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1414548836233981</v>
+        <v>0.09548340358116639</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1315209565581311</v>
+        <v>0.08012567351658592</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1057899072818349</v>
+        <v>0.06639731938028642</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09050900587488052</v>
+        <v>0.05730215607895876</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07092943739956918</v>
+        <v>0.05449799746630783</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05998072753450132</v>
+        <v>0.05045240610184472</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05360051798347471</v>
+        <v>0.04412141374172823</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0490645215358218</v>
+        <v>0.04069530534904318</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04601582668630021</v>
+        <v>0.03832835765636929</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04249468619943188</v>
+        <v>0.03631017235813512</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04064952487242499</v>
+        <v>0.03502492252448234</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03911461217487257</v>
+        <v>0.03432939064918449</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03742011255251643</v>
+        <v>0.03393183971091718</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03633264027287295</v>
+        <v>0.03335786210659412</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03596542506226681</v>
+        <v>0.03248014786489616</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03559985917040058</v>
+        <v>0.03248014786489616</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03529331799435547</v>
+        <v>0.03248014786489616</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.03508004291956615</v>
+        <v>0.03221712070526552</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3750374317169189</v>
+        <v>0.860037088394165</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1892.063820495421</v>
+        <v>1509.654657218398</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1763832949239896</v>
+        <v>0.1763624076937847</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1488505658856033</v>
+        <v>0.1202340009318255</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1412161107205949</v>
+        <v>0.09833797571686118</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1231876455875655</v>
+        <v>0.07315512528984502</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1004588351315294</v>
+        <v>0.06189495683590591</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07867778647224154</v>
+        <v>0.05276503530350155</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06891218197116693</v>
+        <v>0.04596035170285108</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06136601031642046</v>
+        <v>0.03949592627949728</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05197450967238423</v>
+        <v>0.03784797821382108</v>
       </c>
       <c r="O8" t="n">
-        <v>0.04910462698947399</v>
+        <v>0.0351078621414107</v>
       </c>
       <c r="P8" t="n">
-        <v>0.04560332177923785</v>
+        <v>0.03393091595358037</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04404630417163034</v>
+        <v>0.03314490568814368</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04196257649508228</v>
+        <v>0.03258828138589678</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04039021101141394</v>
+        <v>0.03132083658371653</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03900301454862413</v>
+        <v>0.03120214404909025</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03841251464219408</v>
+        <v>0.03062648298374655</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03784669428657016</v>
+        <v>0.03018361314833</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03734082969009179</v>
+        <v>0.02974871747945112</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03710840470426585</v>
+        <v>0.02963673536583354</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03688233568217195</v>
+        <v>0.02942796602764908</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3749594688415527</v>
+        <v>0.7769944667816162</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1995.042158747146</v>
+        <v>1629.17913074275</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1763832949239896</v>
+        <v>0.1763624076937847</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1470971487920564</v>
+        <v>0.1241050196672212</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1370668248027466</v>
+        <v>0.09468685151270141</v>
       </c>
       <c r="I9" t="n">
-        <v>0.11845601410399</v>
+        <v>0.07846231750126748</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09309888386956357</v>
+        <v>0.06215609006798381</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07664180059211662</v>
+        <v>0.05555157635751428</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06757306216111846</v>
+        <v>0.05027196748475667</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05843204675792778</v>
+        <v>0.0430860783254331</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05400920691651272</v>
+        <v>0.04219049019967016</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05054557133252551</v>
+        <v>0.03973941329316557</v>
       </c>
       <c r="P9" t="n">
-        <v>0.04675818708243432</v>
+        <v>0.03772709994819048</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04440036811163021</v>
+        <v>0.03629713363698182</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04365427967400145</v>
+        <v>0.03515779587272554</v>
       </c>
       <c r="S9" t="n">
-        <v>0.04221208736245347</v>
+        <v>0.03386573739978496</v>
       </c>
       <c r="T9" t="n">
-        <v>0.04143570754934179</v>
+        <v>0.03342168569798855</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04070529467988147</v>
+        <v>0.0333357501383874</v>
       </c>
       <c r="V9" t="n">
-        <v>0.040081591383836</v>
+        <v>0.03271707198430868</v>
       </c>
       <c r="W9" t="n">
-        <v>0.03941763700812664</v>
+        <v>0.03225136547663787</v>
       </c>
       <c r="X9" t="n">
-        <v>0.03914131974370871</v>
+        <v>0.03201794039697078</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03888971069682546</v>
+        <v>0.03175787779225633</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3750274181365967</v>
+        <v>0.7090342044830322</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1898.312054279198</v>
+        <v>1738.884846641593</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1763832949239896</v>
+        <v>0.1763624076937847</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1447155221672362</v>
+        <v>0.1341004092578325</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1404046849725465</v>
+        <v>0.09808143689876682</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1080707280037227</v>
+        <v>0.08121672649955827</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08540842642878879</v>
+        <v>0.06333204452698174</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07202244574391832</v>
+        <v>0.05842157055022604</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06150003956882644</v>
+        <v>0.05211522471589179</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05542082687165746</v>
+        <v>0.04565099832168074</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05151144611095325</v>
+        <v>0.04425244501595477</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04800215036336795</v>
+        <v>0.04077093980750659</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04455389486524126</v>
+        <v>0.04008316138651232</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0415243019114908</v>
+        <v>0.03935589456409404</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04114694330997944</v>
+        <v>0.03888512717362943</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04032926253779493</v>
+        <v>0.03780155422777722</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03939823907699906</v>
+        <v>0.03669165015705624</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03829791466883761</v>
+        <v>0.03537375049584821</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03783809452427127</v>
+        <v>0.03531904763530332</v>
       </c>
       <c r="W10" t="n">
-        <v>0.03743619056428547</v>
+        <v>0.03464552953318453</v>
       </c>
       <c r="X10" t="n">
-        <v>0.03721766950425171</v>
+        <v>0.03421141518570118</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.03700413361168027</v>
+        <v>0.03389639077274059</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3593757152557373</v>
+        <v>0.7389984130859375</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1766.466700830066</v>
+        <v>1619.547529769727</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1763832949239896</v>
+        <v>0.1763624076937847</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1497792556575515</v>
+        <v>0.1192790818141171</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1346625434146599</v>
+        <v>0.09458245683278062</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1030318997850675</v>
+        <v>0.08004368783251962</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08144779797735495</v>
+        <v>0.07279067849665462</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06448134721077696</v>
+        <v>0.06306303747011033</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0545874932276224</v>
+        <v>0.05516711879972319</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05068459745888523</v>
+        <v>0.04993685499942606</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04687002183324998</v>
+        <v>0.04603354970106819</v>
       </c>
       <c r="O11" t="n">
-        <v>0.043582714077805</v>
+        <v>0.04060754762103787</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0408557303592063</v>
+        <v>0.03880228962400269</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0379009505497753</v>
+        <v>0.03666663948976245</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03762978249268869</v>
+        <v>0.03485637882208108</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03682752400838765</v>
+        <v>0.03470775699119931</v>
       </c>
       <c r="T11" t="n">
-        <v>0.036227459899469</v>
+        <v>0.03348187890611519</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0356611144404331</v>
+        <v>0.03281139778005213</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03517475713489578</v>
+        <v>0.03204032492713067</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03479589312664136</v>
+        <v>0.03203920798490185</v>
       </c>
       <c r="X11" t="n">
-        <v>0.03443404874912408</v>
+        <v>0.03169549392742469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.03443404874912408</v>
+        <v>0.03157012728595958</v>
       </c>
     </row>
   </sheetData>
